--- a/myext/ext_test/data.xlsx
+++ b/myext/ext_test/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>hn</t>
   </si>
@@ -37,6 +37,18 @@
   </si>
   <si>
     <t>thanhtien</t>
+  </si>
+  <si>
+    <t>loai</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a3</t>
   </si>
 </sst>
 </file>
@@ -354,56 +366,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>20000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>40000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
